--- a/DATA_goal/Junction_Flooding_275.xlsx
+++ b/DATA_goal/Junction_Flooding_275.xlsx
@@ -452,7 +452,7 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -465,13 +465,13 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41707.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.07</v>
+        <v>2.21</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>116.21</v>
+        <v>11.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.35</v>
+        <v>2.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.95</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41707.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.89</v>
+        <v>4.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.84</v>
+        <v>3.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.25</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.71</v>
+        <v>6.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.54</v>
+        <v>2.55</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.35</v>
+        <v>1.13</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.75</v>
+        <v>1.98</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.29</v>
+        <v>2.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.25</v>
+        <v>1.42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.47</v>
+        <v>24.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46.21</v>
+        <v>4.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.74</v>
+        <v>3.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.08</v>
+        <v>3.11</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.34</v>
+        <v>5.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41707.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>48.82</v>
+        <v>4.88</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41707.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.63</v>
+        <v>3.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.25</v>
+        <v>2.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.59</v>
+        <v>4.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>176.92</v>
+        <v>17.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.75</v>
+        <v>3.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.23</v>
+        <v>4.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41707.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>21.15</v>
+        <v>2.11</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>37.87</v>
+        <v>3.79</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>135.74</v>
+        <v>13.57</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>26.33</v>
+        <v>2.63</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>34.49</v>
+        <v>3.45</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41707.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41707.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>32.6</v>
+        <v>3.26</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.39</v>
+        <v>2.64</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>40.73</v>
+        <v>4.07</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="N8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
         <v>3.67</v>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>171.63</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>36.68</v>
-      </c>
       <c r="AG8" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41707.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.69</v>
+        <v>2.07</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>30.54</v>
+        <v>3.05</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.45</v>
+        <v>0.75</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>106.26</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.84</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41707.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_275.xlsx
+++ b/DATA_goal/Junction_Flooding_275.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,27 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41707.34027777778</v>
+        <v>44956.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.21</v>
+        <v>4.86</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.62</v>
+        <v>4.02</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.75</v>
+        <v>1.81</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.25</v>
+        <v>6.03</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.25</v>
+        <v>2.79</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>1.92</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.98</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.09</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.75</v>
+        <v>1.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.62</v>
+        <v>26.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.24</v>
+        <v>5.03</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.75</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.41</v>
+        <v>3.34</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.76</v>
+        <v>1.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>1.32</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.63</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.71</v>
+        <v>1.54</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2</v>
+        <v>5.32</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41707.34722222222</v>
+        <v>44956.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.59</v>
+        <v>4.74</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.68</v>
+        <v>3.93</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.07</v>
+        <v>6.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.53</v>
+        <v>6.11</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41707.35416666666</v>
+        <v>44956.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.33</v>
+        <v>1.15</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.02</v>
+        <v>3.41</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.77</v>
+        <v>2.82</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.34</v>
+        <v>1.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.03</v>
+        <v>5.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.92</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.31</v>
+        <v>1.26</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.51</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.34</v>
+        <v>1.05</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>4.88</v>
+        <v>18.15</v>
       </c>
       <c r="U4" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.9</v>
+        <v>4.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41707.36111111111</v>
+        <v>44956.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.36</v>
+        <v>3.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.72</v>
+        <v>3.17</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.19</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="AD5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>4.02</v>
+        <v>4.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41707.36805555555</v>
+        <v>44956.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.19</v>
+        <v>16.81</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.89</v>
+        <v>12.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.61</v>
+        <v>36.33</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.11</v>
+        <v>30.05</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.93</v>
+        <v>13.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.79</v>
+        <v>52.21</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.45</v>
+        <v>20.36</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.65</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.93</v>
+        <v>13.5</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.05</v>
+        <v>14.67</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.12</v>
+        <v>15.35</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.29</v>
+        <v>4.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>13.16</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.33</v>
+        <v>18.72</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.8</v>
+        <v>11.1</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.67</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13.57</v>
+        <v>192.97</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.63</v>
+        <v>36.82</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.87</v>
+        <v>12.15</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.76</v>
+        <v>24.73</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.92</v>
+        <v>13.15</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.13</v>
+        <v>1.64</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.86</v>
+        <v>25.15</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.77</v>
+        <v>10.73</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.68</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.8</v>
+        <v>11.2</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.1</v>
+        <v>15.35</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.45</v>
+        <v>47.26</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.48</v>
+        <v>6.83</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41707.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41707.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41707.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41707.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41707.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>40.76</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>215.98</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>40.83</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>46.53</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>16.92</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_275.xlsx
+++ b/DATA_goal/Junction_Flooding_275.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -469,8 +469,8 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44956.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.86</v>
+        <v>48.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.03</v>
+        <v>60.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.31</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.15</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.4</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.73</v>
+        <v>267.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.03</v>
+        <v>50.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.32</v>
+        <v>53.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44956.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.74</v>
+        <v>47.44</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.93</v>
+        <v>39.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.76</v>
+        <v>67.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.59</v>
+        <v>255.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.84</v>
+        <v>48.39</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.34</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.26</v>
+        <v>32.63</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.11</v>
+        <v>61.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44956.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.41</v>
+        <v>34.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.06</v>
+        <v>50.55</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.15</v>
+        <v>181.53</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.48</v>
+        <v>34.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.32</v>
+        <v>23.21</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.03</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.57</v>
+        <v>45.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44956.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.17</v>
+        <v>31.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.46</v>
+        <v>54.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.44</v>
+        <v>204.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.89</v>
+        <v>38.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.63</v>
+        <v>26.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.93</v>
+        <v>49.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_275.xlsx
+++ b/DATA_goal/Junction_Flooding_275.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.92</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.56</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.15</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.26</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.88</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.31</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.4</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.06</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.34</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.26</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.39</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.2</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.44</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.25</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.83</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
@@ -765,97 +765,97 @@
         <v>15.92</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.01</v>
+        <v>2.007</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>47.44</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.26</v>
+        <v>39.257</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.39</v>
+        <v>17.392</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.56</v>
+        <v>67.56399999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.71</v>
+        <v>11.707</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.66</v>
+        <v>17.658</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.04</v>
+        <v>19.042</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.96</v>
+        <v>19.955</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.56</v>
+        <v>5.556</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>24.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.63</v>
+        <v>14.628</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.676</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.224</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>255.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.39</v>
+        <v>48.388</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.34</v>
+        <v>32.338</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.18</v>
+        <v>17.177</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.14</v>
+        <v>2.135</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.63</v>
+        <v>32.626</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.63</v>
+        <v>12.627</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.808</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.89</v>
+        <v>19.894</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.1</v>
+        <v>61.101</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.94</v>
+        <v>8.943</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.96</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44956.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>11.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.305</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.08</v>
+        <v>34.075</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>28.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.48</v>
+        <v>12.477</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>50.55</v>
+        <v>50.552</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>8.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.649</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.74</v>
+        <v>13.737</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>14.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.99</v>
+        <v>3.986</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.59</v>
+        <v>17.588</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.55</v>
+        <v>10.545</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.081</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.53</v>
+        <v>181.532</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.75</v>
+        <v>34.753</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.21</v>
+        <v>23.213</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.39</v>
+        <v>12.389</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.516</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.03</v>
+        <v>24.031</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.06</v>
+        <v>9.064</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.63</v>
+        <v>10.631</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.36</v>
+        <v>14.355</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>45.7</v>
+        <v>45.702</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.4</v>
+        <v>6.402</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44956.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.97</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_275.xlsx
+++ b/DATA_goal/Junction_Flooding_275.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44956.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.02</v>
+        <v>13.018</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.152</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.36</v>
+        <v>38.359</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.74</v>
+        <v>31.735</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>54.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.51</v>
+        <v>9.513999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.25</v>
+        <v>14.251</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.47</v>
+        <v>15.474</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.2</v>
+        <v>16.198</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.468</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.77</v>
+        <v>19.767</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.75</v>
+        <v>11.752</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.41</v>
+        <v>204.415</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.9</v>
+        <v>38.905</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.1</v>
+        <v>26.095</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.89</v>
+        <v>13.893</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.32</v>
+        <v>26.323</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.1</v>
+        <v>10.097</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.86</v>
+        <v>11.857</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.2</v>
+        <v>16.196</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.34</v>
+        <v>49.339</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.21</v>
+        <v>7.215</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44956.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192.97</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_275.xlsx
+++ b/DATA_goal/Junction_Flooding_275.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44956.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.776</v>
+        <v>17.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.018</v>
+        <v>13.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.152</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.359</v>
+        <v>38.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.735</v>
+        <v>31.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.989</v>
+        <v>13.99</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>54.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.524</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.513999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.251</v>
+        <v>14.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.474</v>
+        <v>15.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.198</v>
+        <v>16.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.468</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.911</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.767</v>
+        <v>19.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.752</v>
+        <v>11.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.846</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.415</v>
+        <v>204.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.905</v>
+        <v>38.9</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.095</v>
+        <v>26.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.893</v>
+        <v>13.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.323</v>
+        <v>26.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.342</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.097</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.857</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.196</v>
+        <v>16.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.339</v>
+        <v>49.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.215</v>
+        <v>7.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.053</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44956.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.97</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>
